--- a/docs/ARTEFATOS(15-23)/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
+++ b/docs/ARTEFATOS(15-23)/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Extemporâneo</t>
   </si>
   <si>
-    <t xml:space="preserve">Recebimento de pedidos</t>
+    <t xml:space="preserve">Atender o cliente</t>
   </si>
   <si>
     <t xml:space="preserve">FB</t>
@@ -81,43 +81,25 @@
     <t xml:space="preserve">X(2)</t>
   </si>
   <si>
+    <t xml:space="preserve">A cozinha informa que o pedido está pronto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O cliente solicita o fechamento do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caixa devolve o pedido calculado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">FA</t>
   </si>
   <si>
-    <t xml:space="preserve">O Atendente informa da indisponibilidade do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de pedidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cozinha informa que o pedido está pronto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O cliente não aceita o pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagamento de pedidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O cliente solicita o fechamento do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O caixa devolve o pedido calculado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(7)</t>
-  </si>
-  <si>
     <t xml:space="preserve">O cliente não realiza o pagamento</t>
   </si>
   <si>
-    <t xml:space="preserve">X(8)</t>
+    <t xml:space="preserve">X(6)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +141,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,20 +172,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -225,34 +195,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -279,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,35 +282,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,7 +329,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -425,7 +339,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -449,10 +363,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,138 +486,93 @@
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="I6" s="12"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="9" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="22" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
